--- a/ejercicios/Ejercicio 03 - librio diario + IVA.xlsx
+++ b/ejercicios/Ejercicio 03 - librio diario + IVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\AÑO 2020\SEGUNDO SEMESTRE\INTRODUCCIÓN A LA CONTABILIDAD\EJERCICIOS\libro diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Projects\0-Universidad\c1Contabilidad\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907C8E7F-4463-4C86-8729-C503BCE73D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77064A65-DBFB-44C3-880A-D9DE8F08471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56414E87-65FB-CF4D-A460-61A239B3B31F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56414E87-65FB-CF4D-A460-61A239B3B31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro Diario" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -540,8 +540,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -551,8 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -600,16 +597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>810912</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12871</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>853114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>591930</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>141587</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>634133</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>188479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -632,8 +629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9125980" y="720810"/>
-          <a:ext cx="7928754" cy="5483311"/>
+          <a:off x="8366434" y="563270"/>
+          <a:ext cx="8063959" cy="5317349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -686,7 +683,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -792,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -934,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,26 +944,26 @@
   </sheetPr>
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="10" max="10" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,16 +972,16 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
@@ -992,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>42522</v>
       </c>
@@ -1004,621 +1001,562 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>+G8*0.5</f>
         <v>19000000</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>+G8*0.5</f>
         <v>19000000</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13">
         <v>38000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>42523</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>7000000</v>
       </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <f>+F12/900</f>
         <v>4000</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>3600000</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13">
         <f>+F11+F12</f>
         <v>10600000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+    <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>42523</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <v>3</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>5000000</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>800000</v>
       </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13">
         <v>1200000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
+      <c r="F19" s="12"/>
+      <c r="G19" s="13">
         <f>F16+F17-G18</f>
         <v>4600000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="23">
         <v>42525</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f>(3500*(4760/1.19))</f>
         <v>14000000</v>
       </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f>+F23*0.19</f>
         <v>2660000</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13">
         <f>(F23+F24)*0.2</f>
         <v>3332000</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14">
+      <c r="F26" s="12"/>
+      <c r="G26" s="13">
         <f>(F23+F24)*0.8</f>
         <v>13328000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>42467</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19">
         <v>5</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <f>G32-F31</f>
         <v>1103700</v>
       </c>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <f>0.5*26600</f>
         <v>13300</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14">
+      <c r="F32" s="12"/>
+      <c r="G32" s="13">
         <f>(F11+F17-G25)*0.25</f>
         <v>1117000</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+    <row r="33" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>42470</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19">
         <v>6</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <f>(G37+G38)*0.5</f>
         <v>14280000</v>
       </c>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <f>+F35</f>
         <v>14280000</v>
       </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <f>8000*3000</f>
         <v>24000000</v>
       </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
+      <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <f>+G37*0.19</f>
         <v>4560000</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="s">
+    <row r="39" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>42470</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19">
         <v>7</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+      <c r="C41" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <f>4000*3000</f>
         <v>12000000</v>
       </c>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14">
+      <c r="F42" s="12"/>
+      <c r="G42" s="13">
         <f>+F41</f>
         <v>12000000</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
+      <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>42551</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19">
         <v>8</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="12" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="24"/>
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <f>450000/0.9</f>
         <v>500000</v>
       </c>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="s">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14">
+      <c r="F46" s="12"/>
+      <c r="G46" s="13">
         <f>+F45*0.1</f>
         <v>50000</v>
       </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="24"/>
+      <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14">
+      <c r="F47" s="12"/>
+      <c r="G47" s="13">
         <f>+F45-G46</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="12" t="s">
+    <row r="48" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="24"/>
+      <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>42551</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19">
         <v>9</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="12" t="str">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="24"/>
+      <c r="C50" t="str">
         <f>+B62</f>
         <v>IVA DF</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <f>+C62</f>
         <v>4560000</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="13"/>
       <c r="I50" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="12">
         <f>+F50</f>
         <v>4560000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="24"/>
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="12" t="str">
+      <c r="E51" t="str">
         <f>+B63</f>
         <v>IVA CF</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14">
+      <c r="F51" s="12"/>
+      <c r="G51" s="13">
         <f>+C63</f>
         <v>2660000</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="25"/>
       <c r="I51" t="s">
         <v>48</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="12">
         <f>-G51</f>
         <v>-2660000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="24"/>
+      <c r="E52" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14">
+      <c r="F52" s="12"/>
+      <c r="G52" s="13">
         <f>+E64</f>
         <v>1900000</v>
       </c>
       <c r="I52" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="38">
         <f>SUM(K50:K51)</f>
         <v>1900000</v>
       </c>
@@ -1626,143 +1564,143 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="17" t="s">
+    <row r="53" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="26"/>
+      <c r="C53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="30" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="28">
         <f>SUM(F5:F48)</f>
         <v>113237000</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="29">
         <f>SUM(G5:G48)</f>
         <v>113237000</v>
       </c>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F55" s="23"/>
-      <c r="G55" s="23">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12">
         <f>+F54-G54</f>
         <v>0</v>
       </c>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-    </row>
-    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="23"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F59" s="31"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="12">
         <f>G38</f>
         <v>4560000</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="12">
         <f>F24</f>
         <v>2660000</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39">
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36">
         <f>+C62-C63</f>
         <v>1900000</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="23"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="12">
         <f>+G8</f>
         <v>38000000</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -1770,199 +1708,199 @@
         <f>+C6</f>
         <v>Cuenta obligada Socio Ríos</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="12">
         <f>-(F6-G13)</f>
         <v>-8400000</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="I70" s="40" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="I70" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40" t="s">
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B71" t="str">
         <f>+C7</f>
         <v>Cuenta obligada Socio Massu</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="12">
         <f>-(F7-G19)</f>
         <v>-14400000</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
       <c r="I71" t="s">
         <v>24</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="12">
         <f>+G37</f>
         <v>24000000</v>
       </c>
       <c r="L71" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="23">
+      <c r="N71" s="12">
         <f>+F41</f>
         <v>12000000</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="12">
         <f>+K81</f>
         <v>11486700</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G72" s="23"/>
+      <c r="G72" s="12"/>
       <c r="L72" t="str">
         <f>+C31</f>
         <v>Gastos Bancarios</v>
       </c>
-      <c r="N72" s="23">
+      <c r="N72" s="12">
         <f>+F31</f>
         <v>13300</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F73" s="23" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F73" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="23"/>
+      <c r="G73" s="12"/>
       <c r="L73" t="s">
         <v>30</v>
       </c>
-      <c r="N73" s="23">
+      <c r="N73" s="12">
         <f>+F45</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="42" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C74" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43">
+      <c r="D74" s="39"/>
+      <c r="E74" s="40">
         <f>SUM(E69:E73)</f>
         <v>26686700</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="L74" s="40" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="L74" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N74" s="41">
+      <c r="N74" s="38">
         <f>SUM(N71:N73)</f>
         <v>12513300</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
       <c r="I76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
       <c r="J77" t="s">
         <v>24</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="12">
         <f>+J71</f>
         <v>24000000</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
       <c r="I78" t="s">
         <v>62</v>
       </c>
       <c r="J78" t="s">
         <v>57</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="12">
         <f>-N71</f>
         <v>-12000000</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="J79" s="40" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="J79" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="41">
+      <c r="K79" s="38">
         <f>SUM(K77:K78)</f>
         <v>12000000</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
       <c r="I80" t="s">
         <v>62</v>
       </c>
       <c r="J80" t="s">
         <v>61</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="12">
         <f>-(N72+N73)</f>
         <v>-513300</v>
       </c>
     </row>
-    <row r="81" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="J81" s="40" t="s">
+    <row r="81" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="J81" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="K81" s="41">
+      <c r="K81" s="38">
         <f>SUM(K79:K80)</f>
         <v>11486700</v>
       </c>
     </row>
-    <row r="82" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-    </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-    </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-    </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
